--- a/data/trans_camb/P31_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_1_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-8,19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 3,75</t>
+          <t>-19,42; 3,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 15,85</t>
+          <t>-7,78; 17,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 19,83</t>
+          <t>-19,19; 5,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 14,66</t>
+          <t>-16,31; 8,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 8,63</t>
+          <t>-17,1; 7,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 10,61</t>
+          <t>-4,02; 18,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 14,68</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 15,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; 3,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 6,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 6,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 12,27</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 7,31</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,02; 2,1</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-13,01; 4,21</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>-21,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-14,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-20,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-14,94%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 13,86</t>
+          <t>-49,06; 11,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 58,64</t>
+          <t>-21,29; 63,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 81,75</t>
+          <t>-49,75; 22,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 65,52</t>
+          <t>-48,59; 44,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 31,65</t>
+          <t>-50,13; 37,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 38,3</t>
+          <t>-12,84; 73,31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,55; 60,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-20,6; 59,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-47,59; 12,64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,0; 27,68</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 24,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 43,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-25,73; 25,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-42,77; 8,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-39,34; 17,71</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,41</t>
+          <t>-12,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>16,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,89</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,85</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 12,32</t>
+          <t>-12,96; 12,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 10,21</t>
+          <t>-16,48; 10,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 24,11</t>
+          <t>-26,21; -1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 19,72</t>
+          <t>-9,69; 12,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 15,22</t>
+          <t>-11,16; 12,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 11,47</t>
+          <t>6,1; 24,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 20,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 20,05</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 7,73</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 14,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 14,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 12,01</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 5,32</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 8,8</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 10,92</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-11,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>-34,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>62,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46,08%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38,16%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-6,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-7,18%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 40,37</t>
+          <t>-28,56; 39,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 37,01</t>
+          <t>-37,24; 35,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,73; 118,55</t>
+          <t>-60,45; -3,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 94,32</t>
+          <t>-31,84; 65,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 56,75</t>
+          <t>-35,66; 63,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 42,29</t>
+          <t>19,83; 114,45</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 99,58</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 93,29</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-30,5; 26,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-15,79; 60,72</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 53,42</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-16,84; 41,84</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; 19,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 35,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 46,96</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,79</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-11,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>10,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,32</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-9,3</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-6,92</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -0,06</t>
+          <t>-17,55; 1,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 10,35</t>
+          <t>-11,07; 10,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 18,31</t>
+          <t>-16,5; 5,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 10,63</t>
+          <t>-20,87; -1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 6,44</t>
+          <t>-19,95; -1,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 6,98</t>
+          <t>1,72; 17,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 9,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 14,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 1,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,6; 5,34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 7,87</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 8,15</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 7,82</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-15,3; -2,16</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-13,71; -0,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-24,06%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>-31,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>-30,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>27,77%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-14,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-7,36%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-23,59%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-18,68%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,5; 0,51</t>
+          <t>-38,19; 4,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 27,31</t>
+          <t>-23,12; 31,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 56,93</t>
+          <t>-37,0; 14,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 33,68</t>
+          <t>-52,27; -5,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 17,98</t>
+          <t>-51,72; -2,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 19,69</t>
+          <t>4,67; 54,97</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 29,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 46,4</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-32,19; 5,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-28,78; 15,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 22,73</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-15,93; 23,39</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,99; 22,95</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-36,59; -5,35</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; -0,25</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>9,82</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10,76</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,28</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,86</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 16,21</t>
+          <t>-2,84; 14,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 22,53</t>
+          <t>3,78; 21,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 16,47</t>
+          <t>-7,79; 9,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 12,18</t>
+          <t>-3,74; 13,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 14,39</t>
+          <t>-8,66; 9,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,31</t>
+          <t>2,32; 17,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 12,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 19,09</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-13,43; 3,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 6,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 13,29</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 15,04</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 11,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 5,75</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 5,33</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>33,31%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-6,29%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,89%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-1,97%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 75,71</t>
+          <t>-8,86; 64,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,57; 106,09</t>
+          <t>11,76; 97,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 61,94</t>
+          <t>-26,15; 41,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 47,28</t>
+          <t>-12,27; 56,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,9; 57,51</t>
+          <t>-24,88; 35,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,82; 56,98</t>
+          <t>7,47; 68,87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 50,15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,09; 74,95</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; 9,55</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-27,01; 18,84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 52,79</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 59,94</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 43,9</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 17,99</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-18,82; 16,65</t>
         </is>
       </c>
     </row>
@@ -1225,32 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>13,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6,31</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>9,02</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
         </is>
       </c>
     </row>
@@ -1263,32 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 16,91</t>
+          <t>1,12; 17,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 13,9</t>
+          <t>-0,92; 13,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 12,64</t>
+          <t>-4,64; 11,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 14,69</t>
+          <t>3,9; 21,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,2</t>
+          <t>-7,83; 11,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 11,51</t>
+          <t>-5,8; 12,29</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 14,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 10,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 14,33</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 12,87</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 11,9</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 12,13</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 8,55</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 15,8</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 9,43</t>
         </is>
       </c>
     </row>
@@ -1301,32 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>57,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>32,04%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,47; 106,52</t>
+          <t>4,93; 113,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 87,04</t>
+          <t>-4,39; 89,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 45,75</t>
+          <t>-20,08; 70,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 57,77</t>
+          <t>13,45; 116,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,18; 53,48</t>
+          <t>-20,18; 41,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 50,51</t>
+          <t>-15,36; 45,58</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,77; 52,91</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-20,95; 39,34</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; 50,73</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; 41,58</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 52,67</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 52,41</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; 37,72</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 64,66</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 29,52</t>
         </is>
       </c>
     </row>
@@ -1381,32 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-9,43</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-8,59</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-7,62</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-7,9</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-8,58</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
         </is>
       </c>
     </row>
@@ -1419,32 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 16,38</t>
+          <t>-8,42; 14,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 3,58</t>
+          <t>-19,19; 3,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 10,23</t>
+          <t>-20,66; 0,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 2,48</t>
+          <t>-9,48; 12,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,98</t>
+          <t>-15,35; 6,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -0,72</t>
+          <t>-10,84; 9,37</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 1,27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-18,59; 4,3</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-11,64; 13,85</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-13,68; 10,91</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 7,7</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-15,08; -0,59</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-15,86; 0,57</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 9,77</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; 5,31</t>
         </is>
       </c>
     </row>
@@ -1457,32 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-25,48%</t>
+          <t>-21,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>-29,13%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-17,39%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-15,43%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-3,75%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-18,81%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-20,42%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 60,66</t>
+          <t>-21,65; 54,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,99; 13,4</t>
+          <t>-49,84; 14,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 24,35</t>
+          <t>-53,95; 4,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 5,89</t>
+          <t>-33,99; 71,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 23,87</t>
+          <t>-45,4; 26,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,6; -2,2</t>
+          <t>-20,43; 20,82</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-34,04; 3,06</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-34,83; 9,12</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 40,05</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; 29,86</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 19,47</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-33,7; -1,95</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-35,06; 1,75</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-18,63; 35,05</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-28,56; 16,1</t>
         </is>
       </c>
     </row>
@@ -1537,32 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -1575,32 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,47</t>
+          <t>-3,82; 5,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,51</t>
+          <t>-2,15; 6,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,7</t>
+          <t>-9,79; -0,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,77</t>
+          <t>-3,75; 4,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,92</t>
+          <t>-7,01; 1,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,89</t>
+          <t>3,23; 10,89</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 6,67</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 7,99</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 1,44</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 3,64</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 6,97</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 5,64</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 2,25</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 2,24</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 1,31</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>20,77%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
           <t>7,9%</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +2945,84 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 14,74</t>
+          <t>-11,19; 17,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 18,23</t>
+          <t>-6,22; 22,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,46; 36,52</t>
+          <t>-28,27; -2,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 21,09</t>
+          <t>-13,21; 19,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,19; 21,44</t>
+          <t>-21,61; 4,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 15,47</t>
+          <t>8,8; 33,62</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 20,28</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 24,66</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-17,57; 3,83</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 10,51</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 22,18</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 17,63</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 7,02</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 7,05</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1684,15 +3030,15 @@
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
